--- a/src/assets/templateFiles/waterReceipt template.xlsx
+++ b/src/assets/templateFiles/waterReceipt template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive D\Moshtarin\Saadati_AsiaWat\SorceCode\Front\src\assets\templateFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive D\Moshtarin\Saadati_AsiaWat\Ghabz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334E3E41-DCA7-4717-93BB-BF5BAA7DB101}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1710F6-CA13-4944-B776-2A408723A386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3390" yWindow="1215" windowWidth="11010" windowHeight="8535" xr2:uid="{8CF16CE9-ACF0-497D-8AF5-2C69F1F9AE9C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>شناسه قبض</t>
   </si>
@@ -43,6 +43,51 @@
   </si>
   <si>
     <t>مصرف دوره</t>
+  </si>
+  <si>
+    <t>1399/11/23</t>
+  </si>
+  <si>
+    <t>1400/01/14</t>
+  </si>
+  <si>
+    <t>200000 </t>
+  </si>
+  <si>
+    <t>1399/09/22</t>
+  </si>
+  <si>
+    <t>242000 </t>
+  </si>
+  <si>
+    <t>1399/07/23</t>
+  </si>
+  <si>
+    <t>233000 </t>
+  </si>
+  <si>
+    <t>1399/05/25</t>
+  </si>
+  <si>
+    <t>215000 </t>
+  </si>
+  <si>
+    <t>1399/03/20</t>
+  </si>
+  <si>
+    <t>1209000 </t>
+  </si>
+  <si>
+    <t>1399/01/30</t>
+  </si>
+  <si>
+    <t>250000 </t>
+  </si>
+  <si>
+    <t>1398/12/05</t>
+  </si>
+  <si>
+    <t>213000 </t>
   </si>
   <si>
     <t>رقم قبلی</t>
@@ -230,6 +275,62 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Ascending">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0ECFDC3-B798-46F0-B271-E9ADC601392E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5105400" y="952500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -530,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA019D6-41C4-4363-BA14-2F3C2F78FACD}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,19 +658,222 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1140038005120</v>
+      </c>
+      <c r="B2">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>24040</v>
+      </c>
+      <c r="F2">
+        <v>25670</v>
+      </c>
+      <c r="G2">
+        <v>253</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1140038005120</v>
+      </c>
+      <c r="B3">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>25670</v>
+      </c>
+      <c r="F3">
+        <v>26370</v>
+      </c>
+      <c r="G3">
+        <v>305</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1140038005120</v>
+      </c>
+      <c r="B4">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>26370</v>
+      </c>
+      <c r="F4">
+        <v>26505</v>
+      </c>
+      <c r="G4">
+        <v>295</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1140038005120</v>
+      </c>
+      <c r="B5">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>26505</v>
+      </c>
+      <c r="F5">
+        <v>26661</v>
+      </c>
+      <c r="G5">
+        <v>271</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1140038005120</v>
+      </c>
+      <c r="B6">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>26661</v>
+      </c>
+      <c r="F6">
+        <v>27272</v>
+      </c>
+      <c r="G6">
+        <v>736</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1140038005120</v>
+      </c>
+      <c r="B7">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>27272</v>
+      </c>
+      <c r="F7">
+        <v>28836</v>
+      </c>
+      <c r="G7">
+        <v>317</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1140038005120</v>
+      </c>
+      <c r="B8">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>28836</v>
+      </c>
+      <c r="F8">
+        <v>30910</v>
+      </c>
+      <c r="G8">
+        <v>287</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/templateFiles/waterReceipt template.xlsx
+++ b/src/assets/templateFiles/waterReceipt template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive D\Moshtarin\Saadati_AsiaWat\Ghabz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BillManagement\UI\src\assets\templateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1710F6-CA13-4944-B776-2A408723A386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504817A3-A957-40CC-B25E-A1B3BAD6E381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1215" windowWidth="11010" windowHeight="8535" xr2:uid="{8CF16CE9-ACF0-497D-8AF5-2C69F1F9AE9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8CF16CE9-ACF0-497D-8AF5-2C69F1F9AE9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,13 +103,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="IRANSansWeb-fa"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,17 +640,18 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,9 +680,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1140038005120</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>98898988898</v>
       </c>
       <c r="B2">
         <v>190</v>
@@ -702,9 +709,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1140038005120</v>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>98898988898</v>
       </c>
       <c r="B3">
         <v>190</v>
@@ -731,9 +738,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1140038005120</v>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>98898988898</v>
       </c>
       <c r="B4">
         <v>190</v>
@@ -760,9 +767,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1140038005120</v>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>98898988898</v>
       </c>
       <c r="B5">
         <v>190</v>
@@ -789,9 +796,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1140038005120</v>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>98898988898</v>
       </c>
       <c r="B6">
         <v>190</v>
@@ -818,9 +825,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1140038005120</v>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>98898988898</v>
       </c>
       <c r="B7">
         <v>190</v>
@@ -847,9 +854,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1140038005120</v>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>98898988898</v>
       </c>
       <c r="B8">
         <v>190</v>
